--- a/CIS Assessor Local/src/win10_v8.xlsx
+++ b/CIS Assessor Local/src/win10_v8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv-my.sharepoint.com/personal/dongwen_huang_dnv_com/Documents/Project/Code/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv-my.sharepoint.com/personal/dongwen_huang_dnv_com/Documents/Project/Code/CIS Assessor Remote/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{EC60AD8F-0BAD-4648-BF1C-C4EC7CE2CCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{542A07A6-0B0F-423D-95D0-48A7C255F2FE}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{EC60AD8F-0BAD-4648-BF1C-C4EC7CE2CCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E101FE-604F-4BBF-A728-C052C24AA7A4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4199,7 +4199,7 @@
   <dimension ref="A1:I380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4233,7 +4233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1</v>
       </c>
@@ -12636,10 +12636,11 @@
   <autoFilter ref="A1:I380" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="REG_CHECK"/>
+        <filter val="REGISTRY_SETTING"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>